--- a/bank statement generator/bank_statements/statement_95.xlsx
+++ b/bank statement generator/bank_statements/statement_95.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 24.03.2024</t>
+          <t>KONTOSTAND AM 18.08.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,88 +759,88 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>25.03.</t>
+          <t>19.08.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>26.03.</t>
+          <t>20.08.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 79689669</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>77,33-</t>
+          <t>86,95-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>26.03.</t>
+          <t>21.08.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>27.03.</t>
+          <t>22.08.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Schmölln</t>
+          <t>MCDONALDS Demmin</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>12,37-</t>
+          <t>9,62-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>30.03.</t>
+          <t>23.08.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>31.03.</t>
+          <t>24.08.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-93773828</t>
+          <t>RECHNUNG VODAFONE GMBH 16868108</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>55,33-</t>
+          <t>38,11-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>02.04.</t>
+          <t>26.08.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>03.04.</t>
+          <t>27.08.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Oranienburg</t>
+          <t>BURGER KING Mainburg</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>13,71-</t>
+          <t>25,51-</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 06.04.2024</t>
+          <t>KONTOSTAND AM 29.08.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>158,74-</t>
+          <t>160,19-</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 16.04.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 07.09.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
